--- a/conditions_image.xlsx
+++ b/conditions_image.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebekah/Library/CloudStorage/OneDrive-Personal/UM/Experiments code/Eriksen Flanker/Eriksen Flanker_RM_OSF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15CE63B-D96E-2B49-92C3-5D4F3DE1F700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5FF459-C924-9F4E-9EF6-A5C16257BD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="2360" windowWidth="27640" windowHeight="16760" xr2:uid="{CBD10BC8-E4F5-E843-8230-B6AF28F1B879}"/>
   </bookViews>
@@ -92,22 +92,22 @@
     <t>asterisk</t>
   </si>
   <si>
-    <t>fullpathhere/congruent_left.png</t>
-  </si>
-  <si>
-    <t>fullpathhere/congruent_right.png</t>
-  </si>
-  <si>
-    <t>fullpathhere/incongruent_left.png</t>
-  </si>
-  <si>
-    <t>fullpathhere/incongruent_right.png</t>
-  </si>
-  <si>
-    <t>fullpathhere/neutral_left.png</t>
-  </si>
-  <si>
-    <t>fullpathhere/neutral_right.png</t>
+    <t>congruent_left.png</t>
+  </si>
+  <si>
+    <t>congruent_right.png</t>
+  </si>
+  <si>
+    <t>incongruent_left.png</t>
+  </si>
+  <si>
+    <t>incongruent_right.png</t>
+  </si>
+  <si>
+    <t>neutral_left.png</t>
+  </si>
+  <si>
+    <t>neutral_right.png</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
